--- a/mbs-EP-v.1.0.0/Excel Files/crank_slider_gravity_spring_damper.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/crank_slider_gravity_spring_damper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9503B52-DDDD-49AD-95E1-9738640C1AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1240BC-8D1C-4256-AE16-55D68C996D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10545" yWindow="8010" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="252">
   <si>
     <t>Mass</t>
   </si>
@@ -838,6 +838,12 @@
   </si>
   <si>
     <t>Important Note</t>
+  </si>
+  <si>
+    <t>Null Force Length</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1283,18 +1289,96 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,12 +1397,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,74 +1406,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,7 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,7 +1424,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,15 +1442,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,39 +1457,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1491,6 +1497,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,44 +1961,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="J2" s="65" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="J2" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="53">
         <v>2</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="75" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="89"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="47" t="s">
         <v>172</v>
       </c>
@@ -1992,10 +2007,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="53">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2008,14 +2023,14 @@
       <c r="K4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="45" t="s">
         <v>142</v>
       </c>
       <c r="N4" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="90"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="47" t="s">
         <v>173</v>
       </c>
@@ -2024,10 +2039,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="53" t="s">
         <v>91</v>
       </c>
@@ -2040,14 +2055,14 @@
       <c r="K5" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="78"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="47" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="90"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="47" t="s">
         <v>174</v>
       </c>
@@ -2056,10 +2071,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="53" t="s">
         <v>3</v>
       </c>
@@ -2072,14 +2087,14 @@
       <c r="K6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="78"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="47" t="s">
         <v>144</v>
       </c>
       <c r="N6" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="90"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="47" t="s">
         <v>178</v>
       </c>
@@ -2088,12 +2103,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="53">
-        <v>-9806.65</v>
+        <v>-9806</v>
       </c>
       <c r="E7" s="54" t="s">
         <v>118</v>
@@ -2104,14 +2119,14 @@
       <c r="K7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="78"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="90"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="47" t="s">
         <v>177</v>
       </c>
@@ -2120,10 +2135,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="53" t="s">
         <v>140</v>
       </c>
@@ -2136,14 +2151,14 @@
       <c r="K8" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="90"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="47" t="s">
         <v>181</v>
       </c>
@@ -2152,10 +2167,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54" t="s">
         <v>134</v>
@@ -2166,14 +2181,14 @@
       <c r="K9" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="78"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="47" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="90"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="47" t="s">
         <v>182</v>
       </c>
@@ -2188,14 +2203,14 @@
       <c r="K10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="78"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="47" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="90"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="52" t="s">
         <v>183</v>
       </c>
@@ -2206,14 +2221,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="56"/>
       <c r="K11" s="57"/>
-      <c r="L11" s="78"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="47" t="s">
         <v>146</v>
       </c>
       <c r="N11" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="90"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="52" t="s">
         <v>184</v>
       </c>
@@ -2222,25 +2237,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
       <c r="J12" s="58"/>
       <c r="K12" s="59"/>
-      <c r="L12" s="78"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="47" t="s">
         <v>147</v>
       </c>
       <c r="N12" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="O12" s="90"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="47" t="s">
         <v>189</v>
       </c>
@@ -2249,27 +2264,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="44" t="s">
+        <v>251</v>
+      </c>
       <c r="E13" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
       <c r="J13" s="58"/>
       <c r="K13" s="59"/>
-      <c r="L13" s="78"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="47" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="90"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="52" t="s">
         <v>190</v>
       </c>
@@ -2278,27 +2295,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="44" t="s">
+        <v>251</v>
+      </c>
       <c r="E14" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="78"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="47" t="s">
         <v>148</v>
       </c>
       <c r="N14" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="O14" s="90"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="52" t="s">
         <v>191</v>
       </c>
@@ -2307,29 +2326,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="44" t="s">
+        <v>251</v>
+      </c>
       <c r="E15" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="J15" s="75" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="J15" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="78"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="47" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="90"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="52" t="s">
         <v>192</v>
       </c>
@@ -2338,31 +2359,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="46"/>
       <c r="E16" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
       <c r="J16" s="47" t="s">
         <v>105</v>
       </c>
       <c r="K16" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="78"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="47" t="s">
         <v>149</v>
       </c>
       <c r="N16" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="O16" s="90"/>
+      <c r="O16" s="76"/>
       <c r="P16" s="47" t="s">
         <v>197</v>
       </c>
@@ -2371,29 +2392,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="46"/>
       <c r="E17" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="J17" s="47" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="75" t="s">
+      <c r="L17" s="102"/>
+      <c r="M17" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="90"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="76"/>
       <c r="P17" s="52" t="s">
         <v>198</v>
       </c>
@@ -2402,31 +2423,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="46" t="s">
+        <v>251</v>
+      </c>
       <c r="E18" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
       <c r="J18" s="47" t="s">
         <v>106</v>
       </c>
       <c r="K18" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="78"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="55" t="s">
         <v>171</v>
       </c>
       <c r="N18" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="90"/>
+      <c r="O18" s="76"/>
       <c r="P18" s="52" t="s">
         <v>199</v>
       </c>
@@ -2435,31 +2458,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="46"/>
       <c r="E19" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
       <c r="J19" s="47" t="s">
         <v>107</v>
       </c>
       <c r="K19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="78"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="48" t="s">
         <v>162</v>
       </c>
       <c r="N19" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="90"/>
+      <c r="O19" s="76"/>
       <c r="P19" s="52" t="s">
         <v>200</v>
       </c>
@@ -2468,18 +2491,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="100" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="44">
+        <v>2</v>
+      </c>
+      <c r="E20" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="93"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="51"/>
       <c r="J20" s="47" t="s">
         <v>113</v>
@@ -2487,14 +2512,14 @@
       <c r="K20" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="48" t="s">
         <v>163</v>
       </c>
       <c r="N20" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="90"/>
+      <c r="O20" s="76"/>
       <c r="P20" s="47" t="s">
         <v>205</v>
       </c>
@@ -2503,12 +2528,12 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="51"/>
       <c r="J21" s="47" t="s">
         <v>108</v>
@@ -2516,14 +2541,14 @@
       <c r="K21" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="78"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="48" t="s">
         <v>164</v>
       </c>
       <c r="N21" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="O21" s="90"/>
+      <c r="O21" s="76"/>
       <c r="P21" s="52" t="s">
         <v>206</v>
       </c>
@@ -2532,12 +2557,12 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="51"/>
       <c r="J22" s="32" t="s">
         <v>119</v>
@@ -2545,14 +2570,14 @@
       <c r="K22" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="79"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="48" t="s">
         <v>165</v>
       </c>
       <c r="N22" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="O22" s="90"/>
+      <c r="O22" s="76"/>
       <c r="P22" s="52" t="s">
         <v>207</v>
       </c>
@@ -2561,19 +2586,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="51"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="90"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="76"/>
       <c r="P23" s="52" t="s">
         <v>208</v>
       </c>
@@ -2582,19 +2607,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
       <c r="H24" s="51"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="90"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="76"/>
       <c r="P24" s="32" t="s">
         <v>214</v>
       </c>
@@ -2603,19 +2628,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
       <c r="H25" s="51"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="90"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="76"/>
       <c r="P25" s="32" t="s">
         <v>218</v>
       </c>
@@ -2624,19 +2649,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="51"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="90"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="76"/>
       <c r="P26" s="32" t="s">
         <v>219</v>
       </c>
@@ -2645,19 +2670,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
       <c r="H27" s="51"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="90"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="76"/>
       <c r="P27" s="32" t="s">
         <v>220</v>
       </c>
@@ -2666,12 +2691,12 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="90"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="76"/>
       <c r="P28" s="32" t="s">
         <v>222</v>
       </c>
@@ -2680,12 +2705,12 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="90"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="76"/>
       <c r="P29" s="32" t="s">
         <v>221</v>
       </c>
@@ -2694,12 +2719,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="90"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="76"/>
       <c r="P30" s="32" t="s">
         <v>223</v>
       </c>
@@ -2708,12 +2733,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="90"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="76"/>
       <c r="P31" s="32" t="s">
         <v>224</v>
       </c>
@@ -2722,12 +2747,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="90"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="76"/>
       <c r="P32" s="32" t="s">
         <v>225</v>
       </c>
@@ -2736,12 +2761,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="90"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="32" t="s">
         <v>226</v>
       </c>
@@ -2750,12 +2775,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="90"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="32" t="s">
         <v>227</v>
       </c>
@@ -2764,12 +2789,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="90"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="76"/>
       <c r="P35" s="32" t="s">
         <v>228</v>
       </c>
@@ -2778,12 +2803,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="90"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="76"/>
       <c r="P36" s="32" t="s">
         <v>237</v>
       </c>
@@ -2792,12 +2817,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="90"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="76"/>
       <c r="P37" s="32" t="s">
         <v>238</v>
       </c>
@@ -2806,12 +2831,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="86"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="90"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="76"/>
       <c r="P38" s="32" t="s">
         <v>239</v>
       </c>
@@ -2829,18 +2854,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F20:G27"/>
-    <mergeCell ref="B20:C27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2857,6 +2870,18 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F20:G27"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2868,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,118 +2913,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="72"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="66" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66" t="s">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="104" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="66" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="93" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="104" t="s">
+      <c r="S2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="66" t="s">
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="91" t="s">
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="66" t="s">
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66" t="s">
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3053,8 +3078,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="93"/>
-      <c r="S3" s="103"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="105"/>
       <c r="T3" s="16" t="s">
         <v>69</v>
       </c>
@@ -6638,12 +6663,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6657,6 +6676,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6667,7 +6692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -6688,16 +6713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6728,11 +6753,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6804,19 +6829,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6841,16 +6866,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="109" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6886,22 +6911,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6926,21 +6951,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="108" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108" t="s">
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7022,19 +7047,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7059,16 +7084,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108" t="s">
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7146,19 +7171,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7183,16 +7208,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="107" t="s">
+      <c r="F18" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108" t="s">
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -7229,19 +7254,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7266,16 +7291,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108" t="s">
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7314,22 +7339,22 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
@@ -7347,44 +7372,44 @@
       <c r="E26" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="107" t="s">
+      <c r="F26" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108" t="s">
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108" t="s">
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
@@ -7402,26 +7427,26 @@
       <c r="E30" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="109" t="s">
+      <c r="F30" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="109" t="s">
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="108" t="s">
+      <c r="J30" s="114"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108" t="s">
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -7444,14 +7469,14 @@
     </row>
     <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7525,12 +7550,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7602,15 +7627,15 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="112" t="s">
+      <c r="A41" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="114"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="112"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
@@ -7630,11 +7655,11 @@
       <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7758,6 +7783,21 @@
     <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7774,21 +7814,6 @@
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7824,18 +7849,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -7853,11 +7878,11 @@
       <c r="E2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="25" t="s">
         <v>56</v>
       </c>
@@ -7902,10 +7927,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,71 +7939,74 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="124" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126"/>
-      <c r="U2" s="127" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="V2" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-    </row>
-    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+    </row>
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>40</v>
       </c>
@@ -7994,43 +8022,46 @@
       <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="120" t="s">
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="40" t="s">
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="131" t="s">
+      <c r="R3" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S3" s="131"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
         <v>79</v>
       </c>
@@ -8059,79 +8090,80 @@
       <c r="K4" s="49">
         <v>0</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="49"/>
+      <c r="M4" s="18">
         <v>3</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L5" s="18"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
+      <c r="R4" s="18"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="126"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M5" s="18"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+    </row>
+    <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+    </row>
+    <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
       <c r="M8" s="132" t="s">
         <v>128</v>
       </c>
@@ -8140,14 +8172,14 @@
       <c r="P8" s="133"/>
       <c r="Q8" s="133"/>
       <c r="R8" s="134"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="127"/>
-    </row>
-    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+    </row>
+    <row r="9" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>40</v>
       </c>
@@ -8163,16 +8195,16 @@
       <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="120" t="s">
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
       <c r="L9" s="40" t="s">
         <v>123</v>
       </c>
@@ -8188,18 +8220,18 @@
       <c r="P9" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="128" t="s">
+      <c r="Q9" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="R9" s="130"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="127"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R9" s="129"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="49" t="s">
         <v>80</v>
@@ -8232,15 +8264,15 @@
       <c r="L10" s="49">
         <v>2</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N10" s="26"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -8252,52 +8284,54 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="127"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-    </row>
-    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="L11" s="49"/>
+      <c r="M11" s="38"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="112"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="35"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+    </row>
+    <row r="14" spans="1:27" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>40</v>
       </c>
@@ -8313,29 +8347,29 @@
       <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
       <c r="I14" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="121" t="s">
+      <c r="J14" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121" t="s">
+      <c r="K14" s="136"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="137"/>
       <c r="P14" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -8347,7 +8381,7 @@
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
       <c r="O15" s="38"/>
@@ -8355,8 +8389,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -8368,7 +8403,7 @@
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
       <c r="O16" s="38"/>
@@ -8376,24 +8411,26 @@
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="112" t="s">
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>40</v>
       </c>
@@ -8409,21 +8446,22 @@
       <c r="E18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66" t="s">
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
       <c r="L18" s="33" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -8436,8 +8474,9 @@
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -8450,8 +8489,9 @@
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -8464,29 +8504,30 @@
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="U2:Z13"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="V2:AA13"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="M8:R8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8509,21 +8550,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="F1" s="69" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="F1" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="I1" s="69" t="s">
+      <c r="G1" s="97"/>
+      <c r="I1" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
@@ -8541,12 +8582,12 @@
       <c r="G2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
@@ -8558,10 +8599,10 @@
       <c r="G3" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
@@ -8573,10 +8614,10 @@
       <c r="G4" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
@@ -8588,10 +8629,10 @@
       <c r="G5" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
@@ -8603,10 +8644,10 @@
       <c r="G6" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
